--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1100,11 +1100,7 @@
           <t>CTK48B</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
